--- a/biology/Biologie cellulaire et moléculaire/Hans_Winkler/Hans_Winkler.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hans_Winkler/Hans_Winkler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Karl Albert Winkler, né le 23 avril 1877 et mort le 22 novembre 1945, est un botaniste allemand qui a consacré ses recherches à l'étude de la greffe chez les végétaux.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur de botanique à l'université de Hambourg et directeur de l'Institut de botanique de cette université.
-Winkler invente le terme « hétéroploïdie » en 1916. On le connaît aussi pour avoir inventé le terme « génome » en 1920[1] en utilisant les mots gene et chromosome[2].
+Winkler invente le terme « hétéroploïdie » en 1916. On le connaît aussi pour avoir inventé le terme « génome » en 1920 en utilisant les mots gene et chromosome.
 Il écrit: « Ich schlage vor, für den haploiden Chromosomensatz, der im Verein mit dem zugehörigen Protoplasma die materiell Grundlage der systematischen Einheit darstellt den Ausdruck: das Genom zu verwenden... »
-Ce qui peut se traduire par: « Je propose l'expression Génome pour l'ensemble des chromosomes haploïdes, qui, avec le protoplasma pertinent, précise les fondements matériels de l'espèce[3]... »
-Winkler travaille également à l'université de Naples, en Italie , où il étudie la physiologie de l'algue Bryopsis[4].
-Il rejoint le Parti national-socialiste des travailleurs allemands en 1937[5].
+Ce qui peut se traduire par: « Je propose l'expression Génome pour l'ensemble des chromosomes haploïdes, qui, avec le protoplasma pertinent, précise les fondements matériels de l'espèce... »
+Winkler travaille également à l'université de Naples, en Italie , où il étudie la physiologie de l'algue Bryopsis.
+Il rejoint le Parti national-socialiste des travailleurs allemands en 1937.
 </t>
         </is>
       </c>
